--- a/Code/Results/Cases/Case_0_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000778670457719</v>
+        <v>1.028770432315545</v>
       </c>
       <c r="D2">
-        <v>1.00869765267161</v>
+        <v>1.030023074229415</v>
       </c>
       <c r="E2">
-        <v>1.015563911559584</v>
+        <v>1.038020203507392</v>
       </c>
       <c r="F2">
-        <v>1.022739213109434</v>
+        <v>1.047383162933067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048911870739186</v>
+        <v>1.034297704200607</v>
       </c>
       <c r="J2">
-        <v>1.022936116542815</v>
+        <v>1.033920907391606</v>
       </c>
       <c r="K2">
-        <v>1.020037130820042</v>
+        <v>1.032835288492301</v>
       </c>
       <c r="L2">
-        <v>1.026810592480409</v>
+        <v>1.040809427505572</v>
       </c>
       <c r="M2">
-        <v>1.033890589786806</v>
+        <v>1.050145954202725</v>
       </c>
       <c r="N2">
-        <v>1.011636582356954</v>
+        <v>1.015327804369364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004839807537594</v>
+        <v>1.029625315280833</v>
       </c>
       <c r="D3">
-        <v>1.011943384617593</v>
+        <v>1.030751398150041</v>
       </c>
       <c r="E3">
-        <v>1.018966754258463</v>
+        <v>1.038788247179736</v>
       </c>
       <c r="F3">
-        <v>1.026603190507556</v>
+        <v>1.048256171589697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049933466466233</v>
+        <v>1.034422360581718</v>
       </c>
       <c r="J3">
-        <v>1.025199398454383</v>
+        <v>1.034417024629202</v>
       </c>
       <c r="K3">
-        <v>1.022425694758462</v>
+        <v>1.033372095355162</v>
       </c>
       <c r="L3">
-        <v>1.029362570014377</v>
+        <v>1.041387509376476</v>
       </c>
       <c r="M3">
-        <v>1.036906628254948</v>
+        <v>1.050830637291421</v>
       </c>
       <c r="N3">
-        <v>1.012386947682717</v>
+        <v>1.015491903973577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007415709175996</v>
+        <v>1.030178742735585</v>
       </c>
       <c r="D4">
-        <v>1.014007155819236</v>
+        <v>1.031223209421887</v>
       </c>
       <c r="E4">
-        <v>1.021130608109688</v>
+        <v>1.039285825239878</v>
       </c>
       <c r="F4">
-        <v>1.029058998192138</v>
+        <v>1.048821652621188</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050565839218794</v>
+        <v>1.034501114938722</v>
       </c>
       <c r="J4">
-        <v>1.026631603959214</v>
+        <v>1.034737663855557</v>
       </c>
       <c r="K4">
-        <v>1.023939415873989</v>
+        <v>1.033719314458938</v>
       </c>
       <c r="L4">
-        <v>1.03098052283073</v>
+        <v>1.041761508724116</v>
       </c>
       <c r="M4">
-        <v>1.038818914312633</v>
+        <v>1.051273619319814</v>
       </c>
       <c r="N4">
-        <v>1.012861758992568</v>
+        <v>1.01559794561833</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00848657740727</v>
+        <v>1.030411464611268</v>
       </c>
       <c r="D5">
-        <v>1.014866297249543</v>
+        <v>1.031421685698871</v>
       </c>
       <c r="E5">
-        <v>1.022031461409392</v>
+        <v>1.039495149521794</v>
       </c>
       <c r="F5">
-        <v>1.03008109879469</v>
+        <v>1.049059519283114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050824933808919</v>
+        <v>1.034533765913239</v>
       </c>
       <c r="J5">
-        <v>1.027226171725026</v>
+        <v>1.034872367902098</v>
       </c>
       <c r="K5">
-        <v>1.024568363698753</v>
+        <v>1.033865252689696</v>
       </c>
       <c r="L5">
-        <v>1.031652941588174</v>
+        <v>1.041918722681169</v>
       </c>
       <c r="M5">
-        <v>1.039613687537848</v>
+        <v>1.051459834470228</v>
       </c>
       <c r="N5">
-        <v>1.013058866565255</v>
+        <v>1.015642491137692</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008665685829083</v>
+        <v>1.030450543169716</v>
       </c>
       <c r="D6">
-        <v>1.015010061500787</v>
+        <v>1.031455018125121</v>
       </c>
       <c r="E6">
-        <v>1.022182208412812</v>
+        <v>1.039530304292716</v>
       </c>
       <c r="F6">
-        <v>1.030252117772388</v>
+        <v>1.049099466205919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050868043862485</v>
+        <v>1.034539221309621</v>
       </c>
       <c r="J6">
-        <v>1.02732556622861</v>
+        <v>1.034894979831871</v>
       </c>
       <c r="K6">
-        <v>1.024673537361812</v>
+        <v>1.033889754404787</v>
       </c>
       <c r="L6">
-        <v>1.031765394166211</v>
+        <v>1.041945118653815</v>
       </c>
       <c r="M6">
-        <v>1.039746603988348</v>
+        <v>1.051491099915762</v>
       </c>
       <c r="N6">
-        <v>1.013091816831735</v>
+        <v>1.015649968496822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007430064977472</v>
+        <v>1.030181852138994</v>
       </c>
       <c r="D7">
-        <v>1.01401866865279</v>
+        <v>1.0312258609755</v>
       </c>
       <c r="E7">
-        <v>1.0211426797057</v>
+        <v>1.03928862168361</v>
       </c>
       <c r="F7">
-        <v>1.029072695691568</v>
+        <v>1.048824830465562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05056932765547</v>
+        <v>1.03450155302088</v>
       </c>
       <c r="J7">
-        <v>1.026639577939031</v>
+        <v>1.034739464143422</v>
       </c>
       <c r="K7">
-        <v>1.02394784880184</v>
+        <v>1.033721264622849</v>
       </c>
       <c r="L7">
-        <v>1.030989537970279</v>
+        <v>1.041763609486882</v>
       </c>
       <c r="M7">
-        <v>1.038829569741817</v>
+        <v>1.051276107594785</v>
       </c>
       <c r="N7">
-        <v>1.012864402505545</v>
+        <v>1.015598540973427</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002162143099454</v>
+        <v>1.029059289063148</v>
       </c>
       <c r="D8">
-        <v>1.009802263814219</v>
+        <v>1.030269102476587</v>
       </c>
       <c r="E8">
-        <v>1.01672195510883</v>
+        <v>1.038279641664567</v>
       </c>
       <c r="F8">
-        <v>1.024054461467401</v>
+        <v>1.047678077829217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049263126690204</v>
+        <v>1.034340226655098</v>
       </c>
       <c r="J8">
-        <v>1.023707811553681</v>
+        <v>1.034088650821</v>
       </c>
       <c r="K8">
-        <v>1.020851074300568</v>
+        <v>1.033016731158947</v>
       </c>
       <c r="L8">
-        <v>1.027680082493625</v>
+        <v>1.041004804196993</v>
       </c>
       <c r="M8">
-        <v>1.034918167061446</v>
+        <v>1.050377356198563</v>
       </c>
       <c r="N8">
-        <v>1.011892432390944</v>
+        <v>1.015383291685266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9924632227767465</v>
+        <v>1.027083255166386</v>
       </c>
       <c r="D9">
-        <v>1.002081358464695</v>
+        <v>1.028587361070658</v>
       </c>
       <c r="E9">
-        <v>1.008628214873577</v>
+        <v>1.036506381558111</v>
       </c>
       <c r="F9">
-        <v>1.01485623273381</v>
+        <v>1.04566192382805</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046736710833306</v>
+        <v>1.034041385710964</v>
       </c>
       <c r="J9">
-        <v>1.018284960341481</v>
+        <v>1.03293896676841</v>
       </c>
       <c r="K9">
-        <v>1.015140757098383</v>
+        <v>1.031774310966391</v>
       </c>
       <c r="L9">
-        <v>1.02158283937327</v>
+        <v>1.039667308338445</v>
       </c>
       <c r="M9">
-        <v>1.02771279009813</v>
+        <v>1.048793301989469</v>
       </c>
       <c r="N9">
-        <v>1.010094497546138</v>
+        <v>1.015002928817676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9856901095338995</v>
+        <v>1.025767376920992</v>
       </c>
       <c r="D10">
-        <v>0.996720662972074</v>
+        <v>1.027469119555324</v>
       </c>
       <c r="E10">
-        <v>1.003009316427812</v>
+        <v>1.035327466590472</v>
       </c>
       <c r="F10">
-        <v>1.008462845460427</v>
+        <v>1.044321004295196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044893658571321</v>
+        <v>1.033832419513845</v>
       </c>
       <c r="J10">
-        <v>1.014483212899054</v>
+        <v>1.03217065790154</v>
       </c>
       <c r="K10">
-        <v>1.011149380374512</v>
+        <v>1.030945477442276</v>
       </c>
       <c r="L10">
-        <v>1.017324448482703</v>
+        <v>1.038775469769609</v>
       </c>
       <c r="M10">
-        <v>1.022680963478633</v>
+        <v>1.04773713398384</v>
       </c>
       <c r="N10">
-        <v>1.008834066462657</v>
+        <v>1.014748663129978</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9826778461659688</v>
+        <v>1.025197956028747</v>
       </c>
       <c r="D11">
-        <v>0.9943445589764784</v>
+        <v>1.026985622619498</v>
       </c>
       <c r="E11">
-        <v>1.000518871015062</v>
+        <v>1.03481777805043</v>
       </c>
       <c r="F11">
-        <v>1.005627152727113</v>
+        <v>1.04374114933271</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044056080143758</v>
+        <v>1.033739635819325</v>
       </c>
       <c r="J11">
-        <v>1.012789434340025</v>
+        <v>1.031837547918842</v>
       </c>
       <c r="K11">
-        <v>1.00937392257332</v>
+        <v>1.030586468849701</v>
       </c>
       <c r="L11">
-        <v>1.015431008818099</v>
+        <v>1.038389269839488</v>
       </c>
       <c r="M11">
-        <v>1.020443723730753</v>
+        <v>1.047279790411675</v>
       </c>
       <c r="N11">
-        <v>1.008272539334271</v>
+        <v>1.014638405018186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9815464181270543</v>
+        <v>1.024986503753157</v>
       </c>
       <c r="D12">
-        <v>0.9934533354673439</v>
+        <v>1.026806138580028</v>
       </c>
       <c r="E12">
-        <v>0.9995847721201921</v>
+        <v>1.034628577381841</v>
       </c>
       <c r="F12">
-        <v>1.004563251821326</v>
+        <v>1.043525883208603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043738857584907</v>
+        <v>1.03370482712366</v>
       </c>
       <c r="J12">
-        <v>1.012152833444744</v>
+        <v>1.031713753104108</v>
       </c>
       <c r="K12">
-        <v>1.008707043275573</v>
+        <v>1.030453100644707</v>
       </c>
       <c r="L12">
-        <v>1.014719931566743</v>
+        <v>1.038245815178964</v>
       </c>
       <c r="M12">
-        <v>1.019603546223432</v>
+        <v>1.047109911861579</v>
       </c>
       <c r="N12">
-        <v>1.008061497289255</v>
+        <v>1.014597426735598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9817896907938222</v>
+        <v>1.025031858426812</v>
       </c>
       <c r="D13">
-        <v>0.9936449030488252</v>
+        <v>1.026844633589538</v>
       </c>
       <c r="E13">
-        <v>0.999785555272574</v>
+        <v>1.034669156093464</v>
       </c>
       <c r="F13">
-        <v>1.004791949895937</v>
+        <v>1.043572053161618</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043807182189231</v>
+        <v>1.033712309292001</v>
       </c>
       <c r="J13">
-        <v>1.012289729016055</v>
+        <v>1.031740310340161</v>
       </c>
       <c r="K13">
-        <v>1.008850430974797</v>
+        <v>1.030481709299539</v>
       </c>
       <c r="L13">
-        <v>1.014872817133061</v>
+        <v>1.03827658679559</v>
       </c>
       <c r="M13">
-        <v>1.019784188495554</v>
+        <v>1.047146351397126</v>
       </c>
       <c r="N13">
-        <v>1.008106879773287</v>
+        <v>1.014606217773239</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9825845813827008</v>
+        <v>1.02518047616698</v>
       </c>
       <c r="D14">
-        <v>0.9942710685852539</v>
+        <v>1.026970784194564</v>
       </c>
       <c r="E14">
-        <v>1.000441844905915</v>
+        <v>1.034802136198974</v>
       </c>
       <c r="F14">
-        <v>1.005539429460608</v>
+        <v>1.043723352953506</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044029984067358</v>
+        <v>1.033736765548618</v>
       </c>
       <c r="J14">
-        <v>1.012736966646719</v>
+        <v>1.031827316277535</v>
       </c>
       <c r="K14">
-        <v>1.009318950838323</v>
+        <v>1.030575444919741</v>
       </c>
       <c r="L14">
-        <v>1.015372391415871</v>
+        <v>1.038377411881835</v>
       </c>
       <c r="M14">
-        <v>1.020374463736728</v>
+        <v>1.047265748204507</v>
       </c>
       <c r="N14">
-        <v>1.008255145432101</v>
+        <v>1.014635018217659</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9830726594924667</v>
+        <v>1.025272051925219</v>
       </c>
       <c r="D15">
-        <v>0.9946557139662093</v>
+        <v>1.027048524141599</v>
       </c>
       <c r="E15">
-        <v>1.000844996518231</v>
+        <v>1.034884085630468</v>
       </c>
       <c r="F15">
-        <v>1.005998556888281</v>
+        <v>1.043816589416861</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044166444917617</v>
+        <v>1.033751788204422</v>
       </c>
       <c r="J15">
-        <v>1.013011527049707</v>
+        <v>1.031880915204637</v>
       </c>
       <c r="K15">
-        <v>1.009606631879281</v>
+        <v>1.03063319639174</v>
       </c>
       <c r="L15">
-        <v>1.015679155925697</v>
+        <v>1.038439533214059</v>
       </c>
       <c r="M15">
-        <v>1.020736925021974</v>
+        <v>1.047339312461921</v>
       </c>
       <c r="N15">
-        <v>1.008346166971364</v>
+        <v>1.014652760019628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9858882989417131</v>
+        <v>1.02580517528357</v>
       </c>
       <c r="D16">
-        <v>0.9968771682967346</v>
+        <v>1.027501222740467</v>
       </c>
       <c r="E16">
-        <v>1.003173354847188</v>
+        <v>1.03536130972174</v>
       </c>
       <c r="F16">
-        <v>1.008649582077442</v>
+        <v>1.044359503782281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044948398849902</v>
+        <v>1.033838528876671</v>
       </c>
       <c r="J16">
-        <v>1.014594594971469</v>
+        <v>1.032192756420138</v>
       </c>
       <c r="K16">
-        <v>1.011266191987236</v>
+        <v>1.030969301283388</v>
       </c>
       <c r="L16">
-        <v>1.017449038762012</v>
+        <v>1.038801100116833</v>
       </c>
       <c r="M16">
-        <v>1.022828178068347</v>
+        <v>1.047767486172961</v>
       </c>
       <c r="N16">
-        <v>1.008870992955428</v>
+        <v>1.014755977276807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9876327888071533</v>
+        <v>1.026139687710057</v>
       </c>
       <c r="D17">
-        <v>0.9982556674205642</v>
+        <v>1.027785379657907</v>
       </c>
       <c r="E17">
-        <v>1.004618217032446</v>
+        <v>1.035660872371903</v>
       </c>
       <c r="F17">
-        <v>1.010294144961074</v>
+        <v>1.044700267616107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045428199072126</v>
+        <v>1.0338923238419</v>
       </c>
       <c r="J17">
-        <v>1.015574659066415</v>
+        <v>1.032388252688119</v>
       </c>
       <c r="K17">
-        <v>1.012294350387177</v>
+        <v>1.031180100295521</v>
       </c>
       <c r="L17">
-        <v>1.018545753830788</v>
+        <v>1.039027894981916</v>
       </c>
       <c r="M17">
-        <v>1.02412405628398</v>
+        <v>1.048036065114428</v>
       </c>
       <c r="N17">
-        <v>1.009195916970319</v>
+        <v>1.014820680370147</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9886426960271808</v>
+        <v>1.026334838082958</v>
       </c>
       <c r="D18">
-        <v>0.9990544541038268</v>
+        <v>1.027951191874872</v>
       </c>
       <c r="E18">
-        <v>1.005455468899264</v>
+        <v>1.03583567824832</v>
       </c>
       <c r="F18">
-        <v>1.011246930157163</v>
+        <v>1.044899103763332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0457042569612</v>
+        <v>1.033923479566808</v>
       </c>
       <c r="J18">
-        <v>1.016141743070363</v>
+        <v>1.032502241054618</v>
       </c>
       <c r="K18">
-        <v>1.012889528886088</v>
+        <v>1.031303044298647</v>
       </c>
       <c r="L18">
-        <v>1.019180693638075</v>
+        <v>1.039160177800643</v>
       </c>
       <c r="M18">
-        <v>1.02487431042587</v>
+        <v>1.048192721030252</v>
       </c>
       <c r="N18">
-        <v>1.009383926824307</v>
+        <v>1.014858405181726</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9889857727246737</v>
+        <v>1.026401385198254</v>
       </c>
       <c r="D19">
-        <v>0.9993259374392005</v>
+        <v>1.028007741087163</v>
       </c>
       <c r="E19">
-        <v>1.005740027270404</v>
+        <v>1.035895295381066</v>
       </c>
       <c r="F19">
-        <v>1.011570723723915</v>
+        <v>1.044966914309346</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04579774577133</v>
+        <v>1.033934065188532</v>
       </c>
       <c r="J19">
-        <v>1.016334337731983</v>
+        <v>1.032541101098955</v>
       </c>
       <c r="K19">
-        <v>1.013091710269301</v>
+        <v>1.031344963036384</v>
       </c>
       <c r="L19">
-        <v>1.019396394724261</v>
+        <v>1.039205282307984</v>
       </c>
       <c r="M19">
-        <v>1.025129187628507</v>
+        <v>1.048246136322876</v>
       </c>
       <c r="N19">
-        <v>1.009447779637859</v>
+        <v>1.014871265740807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9874464143842713</v>
+        <v>1.026103794068596</v>
       </c>
       <c r="D20">
-        <v>0.9981083151784101</v>
+        <v>1.027754885233374</v>
       </c>
       <c r="E20">
-        <v>1.004463769983241</v>
+        <v>1.035628724255645</v>
       </c>
       <c r="F20">
-        <v>1.010118370581253</v>
+        <v>1.044663699176154</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045377115449819</v>
+        <v>1.03388657510435</v>
       </c>
       <c r="J20">
-        <v>1.015469982389228</v>
+        <v>1.032367282051485</v>
       </c>
       <c r="K20">
-        <v>1.01218450934035</v>
+        <v>1.031157484735773</v>
       </c>
       <c r="L20">
-        <v>1.018428580879751</v>
+        <v>1.039003562317697</v>
       </c>
       <c r="M20">
-        <v>1.023985603790144</v>
+        <v>1.048007249293543</v>
       </c>
       <c r="N20">
-        <v>1.009161212875171</v>
+        <v>1.014813739931149</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9823508570863637</v>
+        <v>1.025136710389267</v>
       </c>
       <c r="D21">
-        <v>0.9940869199685948</v>
+        <v>1.026933632983522</v>
       </c>
       <c r="E21">
-        <v>1.00024883683141</v>
+        <v>1.034762973536114</v>
       </c>
       <c r="F21">
-        <v>1.005319611973039</v>
+        <v>1.043678795668521</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043964544520798</v>
+        <v>1.033729573299284</v>
       </c>
       <c r="J21">
-        <v>1.012605474685103</v>
+        <v>1.031801696924914</v>
       </c>
       <c r="K21">
-        <v>1.009181190140198</v>
+        <v>1.030547842558746</v>
       </c>
       <c r="L21">
-        <v>1.015225496456053</v>
+        <v>1.038347721473412</v>
       </c>
       <c r="M21">
-        <v>1.020200898693438</v>
+        <v>1.04723058882946</v>
       </c>
       <c r="N21">
-        <v>1.00821155378989</v>
+        <v>1.014626537850124</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9790742028854553</v>
+        <v>1.024528991195917</v>
       </c>
       <c r="D22">
-        <v>0.9915083542387153</v>
+        <v>1.026417906251883</v>
       </c>
       <c r="E22">
-        <v>0.9975462371097361</v>
+        <v>1.03421933886074</v>
       </c>
       <c r="F22">
-        <v>1.002240860697958</v>
+        <v>1.043060230358385</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043040969797424</v>
+        <v>1.033628866116159</v>
       </c>
       <c r="J22">
-        <v>1.010761140784062</v>
+        <v>1.031445727594539</v>
       </c>
       <c r="K22">
-        <v>1.007249930319646</v>
+        <v>1.030164441928205</v>
       </c>
       <c r="L22">
-        <v>1.013166460749143</v>
+        <v>1.03793535272457</v>
       </c>
       <c r="M22">
-        <v>1.01776805602412</v>
+        <v>1.04674226782036</v>
       </c>
       <c r="N22">
-        <v>1.007600144875487</v>
+        <v>1.014508700661159</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9808183380488527</v>
+        <v>1.02485112337735</v>
       </c>
       <c r="D23">
-        <v>0.9928801901325405</v>
+        <v>1.026691242727906</v>
       </c>
       <c r="E23">
-        <v>0.9989840563402463</v>
+        <v>1.034507463222978</v>
       </c>
       <c r="F23">
-        <v>1.003878972124433</v>
+        <v>1.043388078217118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043533992955074</v>
+        <v>1.033682441620015</v>
       </c>
       <c r="J23">
-        <v>1.011743068832289</v>
+        <v>1.031634467714916</v>
       </c>
       <c r="K23">
-        <v>1.008277907560652</v>
+        <v>1.030367698361434</v>
       </c>
       <c r="L23">
-        <v>1.014262387338113</v>
+        <v>1.038153958215369</v>
       </c>
       <c r="M23">
-        <v>1.01906293565034</v>
+        <v>1.047001135849863</v>
       </c>
       <c r="N23">
-        <v>1.007925656544233</v>
+        <v>1.014571181112692</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9875306524810679</v>
+        <v>1.02612001275235</v>
       </c>
       <c r="D24">
-        <v>0.9981749135676149</v>
+        <v>1.027768664140387</v>
       </c>
       <c r="E24">
-        <v>1.00453357496049</v>
+        <v>1.0356432503708</v>
       </c>
       <c r="F24">
-        <v>1.010197815387429</v>
+        <v>1.044680222650515</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045400209675111</v>
+        <v>1.033889173397324</v>
       </c>
       <c r="J24">
-        <v>1.015517295377026</v>
+        <v>1.03237675790725</v>
       </c>
       <c r="K24">
-        <v>1.012234155754775</v>
+        <v>1.03116770376941</v>
       </c>
       <c r="L24">
-        <v>1.018481540965088</v>
+        <v>1.03901455721004</v>
       </c>
       <c r="M24">
-        <v>1.024048181820128</v>
+        <v>1.048020269927867</v>
       </c>
       <c r="N24">
-        <v>1.009176898829884</v>
+        <v>1.01481687606444</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9950226601389134</v>
+        <v>1.02759385333706</v>
       </c>
       <c r="D25">
-        <v>1.004113653285104</v>
+        <v>1.029021624467647</v>
       </c>
       <c r="E25">
-        <v>1.010758516733636</v>
+        <v>1.036964245076014</v>
       </c>
       <c r="F25">
-        <v>1.017278530791301</v>
+        <v>1.04618259495331</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047417241783625</v>
+        <v>1.034120363637971</v>
       </c>
       <c r="J25">
-        <v>1.019718700583137</v>
+        <v>1.033236519724684</v>
       </c>
       <c r="K25">
-        <v>1.01664844396964</v>
+        <v>1.032095609751269</v>
       </c>
       <c r="L25">
-        <v>1.02319208511509</v>
+        <v>1.040013119957886</v>
       </c>
       <c r="M25">
-        <v>1.029614412993747</v>
+        <v>1.049202848246224</v>
       </c>
       <c r="N25">
-        <v>1.010569852656959</v>
+        <v>1.015101385354297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028770432315545</v>
+        <v>1.000778670457719</v>
       </c>
       <c r="D2">
-        <v>1.030023074229415</v>
+        <v>1.00869765267161</v>
       </c>
       <c r="E2">
-        <v>1.038020203507392</v>
+        <v>1.015563911559584</v>
       </c>
       <c r="F2">
-        <v>1.047383162933067</v>
+        <v>1.022739213109434</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034297704200607</v>
+        <v>1.048911870739187</v>
       </c>
       <c r="J2">
-        <v>1.033920907391606</v>
+        <v>1.022936116542815</v>
       </c>
       <c r="K2">
-        <v>1.032835288492301</v>
+        <v>1.020037130820042</v>
       </c>
       <c r="L2">
-        <v>1.040809427505572</v>
+        <v>1.026810592480409</v>
       </c>
       <c r="M2">
-        <v>1.050145954202725</v>
+        <v>1.033890589786806</v>
       </c>
       <c r="N2">
-        <v>1.015327804369364</v>
+        <v>1.011636582356954</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029625315280833</v>
+        <v>1.004839807537594</v>
       </c>
       <c r="D3">
-        <v>1.030751398150041</v>
+        <v>1.011943384617593</v>
       </c>
       <c r="E3">
-        <v>1.038788247179736</v>
+        <v>1.018966754258462</v>
       </c>
       <c r="F3">
-        <v>1.048256171589697</v>
+        <v>1.026603190507556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034422360581718</v>
+        <v>1.049933466466233</v>
       </c>
       <c r="J3">
-        <v>1.034417024629202</v>
+        <v>1.025199398454383</v>
       </c>
       <c r="K3">
-        <v>1.033372095355162</v>
+        <v>1.022425694758462</v>
       </c>
       <c r="L3">
-        <v>1.041387509376476</v>
+        <v>1.029362570014376</v>
       </c>
       <c r="M3">
-        <v>1.050830637291421</v>
+        <v>1.036906628254948</v>
       </c>
       <c r="N3">
-        <v>1.015491903973577</v>
+        <v>1.012386947682717</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030178742735585</v>
+        <v>1.007415709175995</v>
       </c>
       <c r="D4">
-        <v>1.031223209421887</v>
+        <v>1.014007155819235</v>
       </c>
       <c r="E4">
-        <v>1.039285825239878</v>
+        <v>1.021130608109687</v>
       </c>
       <c r="F4">
-        <v>1.048821652621188</v>
+        <v>1.029058998192137</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034501114938722</v>
+        <v>1.050565839218793</v>
       </c>
       <c r="J4">
-        <v>1.034737663855557</v>
+        <v>1.026631603959212</v>
       </c>
       <c r="K4">
-        <v>1.033719314458938</v>
+        <v>1.023939415873988</v>
       </c>
       <c r="L4">
-        <v>1.041761508724116</v>
+        <v>1.030980522830728</v>
       </c>
       <c r="M4">
-        <v>1.051273619319814</v>
+        <v>1.038818914312632</v>
       </c>
       <c r="N4">
-        <v>1.01559794561833</v>
+        <v>1.012861758992567</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030411464611268</v>
+        <v>1.00848657740727</v>
       </c>
       <c r="D5">
-        <v>1.031421685698871</v>
+        <v>1.014866297249543</v>
       </c>
       <c r="E5">
-        <v>1.039495149521794</v>
+        <v>1.022031461409392</v>
       </c>
       <c r="F5">
-        <v>1.049059519283114</v>
+        <v>1.03008109879469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034533765913239</v>
+        <v>1.050824933808919</v>
       </c>
       <c r="J5">
-        <v>1.034872367902098</v>
+        <v>1.027226171725026</v>
       </c>
       <c r="K5">
-        <v>1.033865252689696</v>
+        <v>1.024568363698753</v>
       </c>
       <c r="L5">
-        <v>1.041918722681169</v>
+        <v>1.031652941588174</v>
       </c>
       <c r="M5">
-        <v>1.051459834470228</v>
+        <v>1.039613687537848</v>
       </c>
       <c r="N5">
-        <v>1.015642491137692</v>
+        <v>1.013058866565255</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030450543169716</v>
+        <v>1.008665685829082</v>
       </c>
       <c r="D6">
-        <v>1.031455018125121</v>
+        <v>1.015010061500786</v>
       </c>
       <c r="E6">
-        <v>1.039530304292716</v>
+        <v>1.022182208412812</v>
       </c>
       <c r="F6">
-        <v>1.049099466205919</v>
+        <v>1.030252117772388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034539221309621</v>
+        <v>1.050868043862485</v>
       </c>
       <c r="J6">
-        <v>1.034894979831871</v>
+        <v>1.02732556622861</v>
       </c>
       <c r="K6">
-        <v>1.033889754404787</v>
+        <v>1.024673537361812</v>
       </c>
       <c r="L6">
-        <v>1.041945118653815</v>
+        <v>1.031765394166211</v>
       </c>
       <c r="M6">
-        <v>1.051491099915762</v>
+        <v>1.039746603988348</v>
       </c>
       <c r="N6">
-        <v>1.015649968496822</v>
+        <v>1.013091816831735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030181852138994</v>
+        <v>1.007430064977472</v>
       </c>
       <c r="D7">
-        <v>1.0312258609755</v>
+        <v>1.01401866865279</v>
       </c>
       <c r="E7">
-        <v>1.03928862168361</v>
+        <v>1.0211426797057</v>
       </c>
       <c r="F7">
-        <v>1.048824830465562</v>
+        <v>1.029072695691568</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03450155302088</v>
+        <v>1.05056932765547</v>
       </c>
       <c r="J7">
-        <v>1.034739464143422</v>
+        <v>1.02663957793903</v>
       </c>
       <c r="K7">
-        <v>1.033721264622849</v>
+        <v>1.023947848801839</v>
       </c>
       <c r="L7">
-        <v>1.041763609486882</v>
+        <v>1.030989537970278</v>
       </c>
       <c r="M7">
-        <v>1.051276107594785</v>
+        <v>1.038829569741817</v>
       </c>
       <c r="N7">
-        <v>1.015598540973427</v>
+        <v>1.012864402505545</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029059289063148</v>
+        <v>1.002162143099454</v>
       </c>
       <c r="D8">
-        <v>1.030269102476587</v>
+        <v>1.009802263814218</v>
       </c>
       <c r="E8">
-        <v>1.038279641664567</v>
+        <v>1.01672195510883</v>
       </c>
       <c r="F8">
-        <v>1.047678077829217</v>
+        <v>1.0240544614674</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034340226655098</v>
+        <v>1.049263126690203</v>
       </c>
       <c r="J8">
-        <v>1.034088650821</v>
+        <v>1.023707811553681</v>
       </c>
       <c r="K8">
-        <v>1.033016731158947</v>
+        <v>1.020851074300568</v>
       </c>
       <c r="L8">
-        <v>1.041004804196993</v>
+        <v>1.027680082493625</v>
       </c>
       <c r="M8">
-        <v>1.050377356198563</v>
+        <v>1.034918167061446</v>
       </c>
       <c r="N8">
-        <v>1.015383291685266</v>
+        <v>1.011892432390943</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027083255166386</v>
+        <v>0.9924632227767456</v>
       </c>
       <c r="D9">
-        <v>1.028587361070658</v>
+        <v>1.002081358464694</v>
       </c>
       <c r="E9">
-        <v>1.036506381558111</v>
+        <v>1.008628214873576</v>
       </c>
       <c r="F9">
-        <v>1.04566192382805</v>
+        <v>1.014856232733809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034041385710964</v>
+        <v>1.046736710833305</v>
       </c>
       <c r="J9">
-        <v>1.03293896676841</v>
+        <v>1.01828496034148</v>
       </c>
       <c r="K9">
-        <v>1.031774310966391</v>
+        <v>1.015140757098382</v>
       </c>
       <c r="L9">
-        <v>1.039667308338445</v>
+        <v>1.021582839373269</v>
       </c>
       <c r="M9">
-        <v>1.048793301989469</v>
+        <v>1.027712790098129</v>
       </c>
       <c r="N9">
-        <v>1.015002928817676</v>
+        <v>1.010094497546137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025767376920992</v>
+        <v>0.9856901095338987</v>
       </c>
       <c r="D10">
-        <v>1.027469119555324</v>
+        <v>0.9967206629720733</v>
       </c>
       <c r="E10">
-        <v>1.035327466590472</v>
+        <v>1.003009316427811</v>
       </c>
       <c r="F10">
-        <v>1.044321004295196</v>
+        <v>1.008462845460426</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033832419513845</v>
+        <v>1.044893658571321</v>
       </c>
       <c r="J10">
-        <v>1.03217065790154</v>
+        <v>1.014483212899053</v>
       </c>
       <c r="K10">
-        <v>1.030945477442276</v>
+        <v>1.011149380374511</v>
       </c>
       <c r="L10">
-        <v>1.038775469769609</v>
+        <v>1.017324448482703</v>
       </c>
       <c r="M10">
-        <v>1.04773713398384</v>
+        <v>1.022680963478632</v>
       </c>
       <c r="N10">
-        <v>1.014748663129978</v>
+        <v>1.008834066462656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025197956028747</v>
+        <v>0.9826778461659684</v>
       </c>
       <c r="D11">
-        <v>1.026985622619498</v>
+        <v>0.994344558976478</v>
       </c>
       <c r="E11">
-        <v>1.03481777805043</v>
+        <v>1.000518871015062</v>
       </c>
       <c r="F11">
-        <v>1.04374114933271</v>
+        <v>1.005627152727113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033739635819325</v>
+        <v>1.044056080143757</v>
       </c>
       <c r="J11">
-        <v>1.031837547918842</v>
+        <v>1.012789434340025</v>
       </c>
       <c r="K11">
-        <v>1.030586468849701</v>
+        <v>1.00937392257332</v>
       </c>
       <c r="L11">
-        <v>1.038389269839488</v>
+        <v>1.015431008818099</v>
       </c>
       <c r="M11">
-        <v>1.047279790411675</v>
+        <v>1.020443723730752</v>
       </c>
       <c r="N11">
-        <v>1.014638405018186</v>
+        <v>1.008272539334271</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024986503753157</v>
+        <v>0.9815464181270541</v>
       </c>
       <c r="D12">
-        <v>1.026806138580028</v>
+        <v>0.9934533354673438</v>
       </c>
       <c r="E12">
-        <v>1.034628577381841</v>
+        <v>0.9995847721201919</v>
       </c>
       <c r="F12">
-        <v>1.043525883208603</v>
+        <v>1.004563251821326</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03370482712366</v>
+        <v>1.043738857584907</v>
       </c>
       <c r="J12">
-        <v>1.031713753104108</v>
+        <v>1.012152833444744</v>
       </c>
       <c r="K12">
-        <v>1.030453100644707</v>
+        <v>1.008707043275573</v>
       </c>
       <c r="L12">
-        <v>1.038245815178964</v>
+        <v>1.014719931566743</v>
       </c>
       <c r="M12">
-        <v>1.047109911861579</v>
+        <v>1.019603546223431</v>
       </c>
       <c r="N12">
-        <v>1.014597426735598</v>
+        <v>1.008061497289255</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025031858426812</v>
+        <v>0.9817896907938221</v>
       </c>
       <c r="D13">
-        <v>1.026844633589538</v>
+        <v>0.9936449030488254</v>
       </c>
       <c r="E13">
-        <v>1.034669156093464</v>
+        <v>0.9997855552725738</v>
       </c>
       <c r="F13">
-        <v>1.043572053161618</v>
+        <v>1.004791949895937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033712309292001</v>
+        <v>1.043807182189231</v>
       </c>
       <c r="J13">
-        <v>1.031740310340161</v>
+        <v>1.012289729016055</v>
       </c>
       <c r="K13">
-        <v>1.030481709299539</v>
+        <v>1.008850430974797</v>
       </c>
       <c r="L13">
-        <v>1.03827658679559</v>
+        <v>1.01487281713306</v>
       </c>
       <c r="M13">
-        <v>1.047146351397126</v>
+        <v>1.019784188495554</v>
       </c>
       <c r="N13">
-        <v>1.014606217773239</v>
+        <v>1.008106879773287</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02518047616698</v>
+        <v>0.9825845813827003</v>
       </c>
       <c r="D14">
-        <v>1.026970784194564</v>
+        <v>0.9942710685852534</v>
       </c>
       <c r="E14">
-        <v>1.034802136198974</v>
+        <v>1.000441844905915</v>
       </c>
       <c r="F14">
-        <v>1.043723352953506</v>
+        <v>1.005539429460607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033736765548618</v>
+        <v>1.044029984067358</v>
       </c>
       <c r="J14">
-        <v>1.031827316277535</v>
+        <v>1.012736966646719</v>
       </c>
       <c r="K14">
-        <v>1.030575444919741</v>
+        <v>1.009318950838322</v>
       </c>
       <c r="L14">
-        <v>1.038377411881835</v>
+        <v>1.015372391415871</v>
       </c>
       <c r="M14">
-        <v>1.047265748204507</v>
+        <v>1.020374463736728</v>
       </c>
       <c r="N14">
-        <v>1.014635018217659</v>
+        <v>1.008255145432101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025272051925219</v>
+        <v>0.9830726594924667</v>
       </c>
       <c r="D15">
-        <v>1.027048524141599</v>
+        <v>0.9946557139662093</v>
       </c>
       <c r="E15">
-        <v>1.034884085630468</v>
+        <v>1.000844996518231</v>
       </c>
       <c r="F15">
-        <v>1.043816589416861</v>
+        <v>1.005998556888281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033751788204422</v>
+        <v>1.044166444917617</v>
       </c>
       <c r="J15">
-        <v>1.031880915204637</v>
+        <v>1.013011527049707</v>
       </c>
       <c r="K15">
-        <v>1.03063319639174</v>
+        <v>1.009606631879281</v>
       </c>
       <c r="L15">
-        <v>1.038439533214059</v>
+        <v>1.015679155925697</v>
       </c>
       <c r="M15">
-        <v>1.047339312461921</v>
+        <v>1.020736925021974</v>
       </c>
       <c r="N15">
-        <v>1.014652760019628</v>
+        <v>1.008346166971364</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02580517528357</v>
+        <v>0.985888298941713</v>
       </c>
       <c r="D16">
-        <v>1.027501222740467</v>
+        <v>0.9968771682967345</v>
       </c>
       <c r="E16">
-        <v>1.03536130972174</v>
+        <v>1.003173354847188</v>
       </c>
       <c r="F16">
-        <v>1.044359503782281</v>
+        <v>1.008649582077441</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033838528876671</v>
+        <v>1.044948398849902</v>
       </c>
       <c r="J16">
-        <v>1.032192756420138</v>
+        <v>1.014594594971469</v>
       </c>
       <c r="K16">
-        <v>1.030969301283388</v>
+        <v>1.011266191987236</v>
       </c>
       <c r="L16">
-        <v>1.038801100116833</v>
+        <v>1.017449038762012</v>
       </c>
       <c r="M16">
-        <v>1.047767486172961</v>
+        <v>1.022828178068347</v>
       </c>
       <c r="N16">
-        <v>1.014755977276807</v>
+        <v>1.008870992955428</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026139687710057</v>
+        <v>0.9876327888071528</v>
       </c>
       <c r="D17">
-        <v>1.027785379657907</v>
+        <v>0.9982556674205633</v>
       </c>
       <c r="E17">
-        <v>1.035660872371903</v>
+        <v>1.004618217032445</v>
       </c>
       <c r="F17">
-        <v>1.044700267616107</v>
+        <v>1.010294144961073</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0338923238419</v>
+        <v>1.045428199072126</v>
       </c>
       <c r="J17">
-        <v>1.032388252688119</v>
+        <v>1.015574659066414</v>
       </c>
       <c r="K17">
-        <v>1.031180100295521</v>
+        <v>1.012294350387176</v>
       </c>
       <c r="L17">
-        <v>1.039027894981916</v>
+        <v>1.018545753830787</v>
       </c>
       <c r="M17">
-        <v>1.048036065114428</v>
+        <v>1.024124056283979</v>
       </c>
       <c r="N17">
-        <v>1.014820680370147</v>
+        <v>1.009195916970319</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026334838082958</v>
+        <v>0.9886426960271811</v>
       </c>
       <c r="D18">
-        <v>1.027951191874872</v>
+        <v>0.999054454103827</v>
       </c>
       <c r="E18">
-        <v>1.03583567824832</v>
+        <v>1.005455468899265</v>
       </c>
       <c r="F18">
-        <v>1.044899103763332</v>
+        <v>1.011246930157164</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033923479566808</v>
+        <v>1.0457042569612</v>
       </c>
       <c r="J18">
-        <v>1.032502241054618</v>
+        <v>1.016141743070363</v>
       </c>
       <c r="K18">
-        <v>1.031303044298647</v>
+        <v>1.012889528886088</v>
       </c>
       <c r="L18">
-        <v>1.039160177800643</v>
+        <v>1.019180693638075</v>
       </c>
       <c r="M18">
-        <v>1.048192721030252</v>
+        <v>1.02487431042587</v>
       </c>
       <c r="N18">
-        <v>1.014858405181726</v>
+        <v>1.009383926824307</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026401385198254</v>
+        <v>0.9889857727246733</v>
       </c>
       <c r="D19">
-        <v>1.028007741087163</v>
+        <v>0.9993259374392001</v>
       </c>
       <c r="E19">
-        <v>1.035895295381066</v>
+        <v>1.005740027270403</v>
       </c>
       <c r="F19">
-        <v>1.044966914309346</v>
+        <v>1.011570723723915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033934065188532</v>
+        <v>1.04579774577133</v>
       </c>
       <c r="J19">
-        <v>1.032541101098955</v>
+        <v>1.016334337731983</v>
       </c>
       <c r="K19">
-        <v>1.031344963036384</v>
+        <v>1.0130917102693</v>
       </c>
       <c r="L19">
-        <v>1.039205282307984</v>
+        <v>1.01939639472426</v>
       </c>
       <c r="M19">
-        <v>1.048246136322876</v>
+        <v>1.025129187628506</v>
       </c>
       <c r="N19">
-        <v>1.014871265740807</v>
+        <v>1.009447779637858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026103794068596</v>
+        <v>0.9874464143842714</v>
       </c>
       <c r="D20">
-        <v>1.027754885233374</v>
+        <v>0.9981083151784104</v>
       </c>
       <c r="E20">
-        <v>1.035628724255645</v>
+        <v>1.00446376998324</v>
       </c>
       <c r="F20">
-        <v>1.044663699176154</v>
+        <v>1.010118370581252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03388657510435</v>
+        <v>1.045377115449819</v>
       </c>
       <c r="J20">
-        <v>1.032367282051485</v>
+        <v>1.015469982389228</v>
       </c>
       <c r="K20">
-        <v>1.031157484735773</v>
+        <v>1.01218450934035</v>
       </c>
       <c r="L20">
-        <v>1.039003562317697</v>
+        <v>1.018428580879751</v>
       </c>
       <c r="M20">
-        <v>1.048007249293543</v>
+        <v>1.023985603790143</v>
       </c>
       <c r="N20">
-        <v>1.014813739931149</v>
+        <v>1.009161212875171</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025136710389267</v>
+        <v>0.9823508570863633</v>
       </c>
       <c r="D21">
-        <v>1.026933632983522</v>
+        <v>0.9940869199685942</v>
       </c>
       <c r="E21">
-        <v>1.034762973536114</v>
+        <v>1.000248836831409</v>
       </c>
       <c r="F21">
-        <v>1.043678795668521</v>
+        <v>1.005319611973039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033729573299284</v>
+        <v>1.043964544520797</v>
       </c>
       <c r="J21">
-        <v>1.031801696924914</v>
+        <v>1.012605474685102</v>
       </c>
       <c r="K21">
-        <v>1.030547842558746</v>
+        <v>1.009181190140197</v>
       </c>
       <c r="L21">
-        <v>1.038347721473412</v>
+        <v>1.015225496456052</v>
       </c>
       <c r="M21">
-        <v>1.04723058882946</v>
+        <v>1.020200898693437</v>
       </c>
       <c r="N21">
-        <v>1.014626537850124</v>
+        <v>1.00821155378989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024528991195917</v>
+        <v>0.979074202885454</v>
       </c>
       <c r="D22">
-        <v>1.026417906251883</v>
+        <v>0.9915083542387142</v>
       </c>
       <c r="E22">
-        <v>1.03421933886074</v>
+        <v>0.9975462371097348</v>
       </c>
       <c r="F22">
-        <v>1.043060230358385</v>
+        <v>1.002240860697957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033628866116159</v>
+        <v>1.043040969797424</v>
       </c>
       <c r="J22">
-        <v>1.031445727594539</v>
+        <v>1.010761140784061</v>
       </c>
       <c r="K22">
-        <v>1.030164441928205</v>
+        <v>1.007249930319645</v>
       </c>
       <c r="L22">
-        <v>1.03793535272457</v>
+        <v>1.013166460749142</v>
       </c>
       <c r="M22">
-        <v>1.04674226782036</v>
+        <v>1.017768056024118</v>
       </c>
       <c r="N22">
-        <v>1.014508700661159</v>
+        <v>1.007600144875486</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02485112337735</v>
+        <v>0.9808183380488525</v>
       </c>
       <c r="D23">
-        <v>1.026691242727906</v>
+        <v>0.9928801901325405</v>
       </c>
       <c r="E23">
-        <v>1.034507463222978</v>
+        <v>0.9989840563402459</v>
       </c>
       <c r="F23">
-        <v>1.043388078217118</v>
+        <v>1.003878972124433</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033682441620015</v>
+        <v>1.043533992955074</v>
       </c>
       <c r="J23">
-        <v>1.031634467714916</v>
+        <v>1.011743068832289</v>
       </c>
       <c r="K23">
-        <v>1.030367698361434</v>
+        <v>1.008277907560652</v>
       </c>
       <c r="L23">
-        <v>1.038153958215369</v>
+        <v>1.014262387338112</v>
       </c>
       <c r="M23">
-        <v>1.047001135849863</v>
+        <v>1.01906293565034</v>
       </c>
       <c r="N23">
-        <v>1.014571181112692</v>
+        <v>1.007925656544233</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02612001275235</v>
+        <v>0.9875306524810682</v>
       </c>
       <c r="D24">
-        <v>1.027768664140387</v>
+        <v>0.9981749135676146</v>
       </c>
       <c r="E24">
-        <v>1.0356432503708</v>
+        <v>1.00453357496049</v>
       </c>
       <c r="F24">
-        <v>1.044680222650515</v>
+        <v>1.010197815387428</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033889173397324</v>
+        <v>1.045400209675111</v>
       </c>
       <c r="J24">
-        <v>1.03237675790725</v>
+        <v>1.015517295377026</v>
       </c>
       <c r="K24">
-        <v>1.03116770376941</v>
+        <v>1.012234155754775</v>
       </c>
       <c r="L24">
-        <v>1.03901455721004</v>
+        <v>1.018481540965088</v>
       </c>
       <c r="M24">
-        <v>1.048020269927867</v>
+        <v>1.024048181820127</v>
       </c>
       <c r="N24">
-        <v>1.01481687606444</v>
+        <v>1.009176898829884</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02759385333706</v>
+        <v>0.9950226601389134</v>
       </c>
       <c r="D25">
-        <v>1.029021624467647</v>
+        <v>1.004113653285104</v>
       </c>
       <c r="E25">
-        <v>1.036964245076014</v>
+        <v>1.010758516733636</v>
       </c>
       <c r="F25">
-        <v>1.04618259495331</v>
+        <v>1.017278530791301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034120363637971</v>
+        <v>1.047417241783625</v>
       </c>
       <c r="J25">
-        <v>1.033236519724684</v>
+        <v>1.019718700583136</v>
       </c>
       <c r="K25">
-        <v>1.032095609751269</v>
+        <v>1.01664844396964</v>
       </c>
       <c r="L25">
-        <v>1.040013119957886</v>
+        <v>1.02319208511509</v>
       </c>
       <c r="M25">
-        <v>1.049202848246224</v>
+        <v>1.029614412993747</v>
       </c>
       <c r="N25">
-        <v>1.015101385354297</v>
+        <v>1.010569852656959</v>
       </c>
     </row>
   </sheetData>
